--- a/assets/DetailQuestionAnalysis (22).xlsx
+++ b/assets/DetailQuestionAnalysis (22).xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Student, 1"/>
@@ -391,7 +391,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +403,12 @@
       <b/>
       <sz val="23"/>
       <color rgb="FF0000ff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -423,13 +429,13 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -461,46 +467,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -809,7 +818,7 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -817,7 +826,7 @@
     <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
@@ -926,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="51.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -953,7 +962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="40.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -980,7 +989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="40.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="57">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="95.25">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -1088,7 +1097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57">
       <c r="A13" s="10">
         <v>7</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="44.25">
       <c r="A14" s="10">
         <v>8</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="95.25">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
       <c r="A16" s="10">
         <v>10</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="44.25">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="95.25">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="44.25">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
       <c r="A20" s="10">
         <v>14</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="82.5">
       <c r="A21" s="10">
         <v>15</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="95.25">
       <c r="A22" s="10">
         <v>16</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="95.25">
       <c r="A23" s="10">
         <v>17</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="69.75">
       <c r="A24" s="10">
         <v>18</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="57">
       <c r="A25" s="10">
         <v>19</v>
       </c>
@@ -2026,7 +2035,7 @@
     <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
@@ -3227,7 +3236,7 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3235,7 +3244,7 @@
     <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
@@ -4444,7 +4453,7 @@
     <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
@@ -5653,7 +5662,7 @@
     <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>

--- a/assets/DetailQuestionAnalysis (22).xlsx
+++ b/assets/DetailQuestionAnalysis (22).xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Student, 1"/>
@@ -391,7 +391,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,7 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -429,12 +429,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -467,12 +461,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -496,12 +490,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -510,9 +498,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,19 +803,19 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="50.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
@@ -936,1082 +921,1082 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25">
-      <c r="A9" s="10">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="57">
-      <c r="A11" s="10">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="95.25">
-      <c r="A12" s="10">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57">
-      <c r="A13" s="10">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="44.25">
-      <c r="A14" s="10">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="95.25">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
-      <c r="A16" s="10">
+      <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="44.25">
-      <c r="A17" s="10">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="95.25">
-      <c r="A18" s="10">
+      <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="44.25">
-      <c r="A19" s="10">
+      <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
-      <c r="A20" s="10">
+      <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="82.5">
-      <c r="A21" s="10">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="95.25">
-      <c r="A22" s="10">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="95.25">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="69.75">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="57">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="4">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="10">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="10">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="10">
+      <c r="A28" s="4">
         <v>22</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="10">
+      <c r="A29" s="4">
         <v>23</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="10">
+      <c r="A30" s="4">
         <v>24</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="10">
+      <c r="A31" s="4">
         <v>25</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="10">
+      <c r="A32" s="4">
         <v>26</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="10">
+      <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="10">
+      <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="10">
+      <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="10">
+      <c r="A38" s="4">
         <v>32</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="10">
+      <c r="A39" s="4">
         <v>33</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="10">
+      <c r="A40" s="4">
         <v>34</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="10">
+      <c r="A41" s="4">
         <v>35</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="10">
+      <c r="A42" s="4">
         <v>36</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="10">
+      <c r="A43" s="4">
         <v>37</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="10">
+      <c r="A44" s="4">
         <v>38</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="10">
+      <c r="A45" s="4">
         <v>39</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="10">
+      <c r="A46" s="4">
         <v>40</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2031,15 +2016,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="50.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -2145,1082 +2130,1082 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="10">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="10">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="10">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="10">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="10">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="10">
+      <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="10">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="10">
+      <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="10">
+      <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="10">
+      <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="10">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="10">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="4">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="10">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="10">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="10">
+      <c r="A28" s="4">
         <v>22</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="10">
+      <c r="A29" s="4">
         <v>23</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="10">
+      <c r="A30" s="4">
         <v>24</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="10">
+      <c r="A31" s="4">
         <v>25</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="10">
+      <c r="A32" s="4">
         <v>26</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="10">
+      <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="10">
+      <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="10">
+      <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="10">
+      <c r="A38" s="4">
         <v>32</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="10">
+      <c r="A39" s="4">
         <v>33</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="10">
+      <c r="A40" s="4">
         <v>34</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="10">
+      <c r="A41" s="4">
         <v>35</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="10">
+      <c r="A42" s="4">
         <v>36</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="10">
+      <c r="A43" s="4">
         <v>37</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="10">
+      <c r="A44" s="4">
         <v>38</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="10">
+      <c r="A45" s="4">
         <v>39</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="10">
+      <c r="A46" s="4">
         <v>40</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3236,22 +3221,22 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="50.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3249,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3279,7 +3264,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3294,7 +3279,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3309,7 +3294,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3324,7 +3309,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="7">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="50.25" customFormat="1" s="7">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -3353,1083 +3338,1083 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="10">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="10">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="57">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="10">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="95.25">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="10">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="10">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="44.25">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="10">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="95.25">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="10">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
+      <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="10">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="44.25">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="10">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="95.25">
+      <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="10">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="44.25">
+      <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="10">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
+      <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="10">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="82.5">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="10">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="95.25">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="4">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="10">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="10">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="57">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="10">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="57">
+      <c r="A28" s="4">
         <v>22</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="57">
+      <c r="A29" s="4">
         <v>23</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="10">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4">
         <v>24</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="10">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="44.25">
+      <c r="A31" s="4">
         <v>25</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="10">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="31.5">
+      <c r="A32" s="4">
         <v>26</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="10">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="31.5">
+      <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="10">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="10">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="31.5">
+      <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="10">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="57">
+      <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="10">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="31.5">
+      <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="10">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="44.25">
+      <c r="A38" s="4">
         <v>32</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="10">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="31.5">
+      <c r="A39" s="4">
         <v>33</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="10">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="31.5">
+      <c r="A40" s="4">
         <v>34</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="10">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="31.5">
+      <c r="A41" s="4">
         <v>35</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="10">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="44.25">
+      <c r="A42" s="4">
         <v>36</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="10">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="44.25">
+      <c r="A43" s="4">
         <v>37</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="10">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="44.25">
+      <c r="A44" s="4">
         <v>38</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="10">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="82.5">
+      <c r="A45" s="4">
         <v>39</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="10">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="95.25">
+      <c r="A46" s="4">
         <v>40</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4449,15 +4434,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="50.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -4563,1082 +4548,1082 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="10">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="10">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="10">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="10">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="10">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="10">
+      <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="10">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="10">
+      <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="10">
+      <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="10">
+      <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="10">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="10">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="4">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="10">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="10">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="10">
+      <c r="A28" s="4">
         <v>22</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="10">
+      <c r="A29" s="4">
         <v>23</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="10">
+      <c r="A30" s="4">
         <v>24</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="10">
+      <c r="A31" s="4">
         <v>25</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="10">
+      <c r="A32" s="4">
         <v>26</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="4">
         <v>0</v>
       </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="10">
+      <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="10">
+      <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="10">
+      <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="10">
+      <c r="A38" s="4">
         <v>32</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="10">
+      <c r="A39" s="4">
         <v>33</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="10">
+      <c r="A40" s="4">
         <v>34</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="10">
+      <c r="A41" s="4">
         <v>35</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="10">
+      <c r="A42" s="4">
         <v>36</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="10">
+      <c r="A43" s="4">
         <v>37</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="10">
+      <c r="A44" s="4">
         <v>38</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="10">
+      <c r="A45" s="4">
         <v>39</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="10">
+      <c r="A46" s="4">
         <v>40</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5658,15 +5643,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="50.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -5772,1082 +5757,1082 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="10">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="10">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="10">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="10">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="10">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="10">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="10">
+      <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="10">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="10">
+      <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="10">
+      <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="10">
+      <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="10">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="10">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="4">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="10">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="10">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="10">
+      <c r="A28" s="4">
         <v>22</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="10">
+      <c r="A29" s="4">
         <v>23</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="10">
+      <c r="A30" s="4">
         <v>24</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="10">
+      <c r="A31" s="4">
         <v>25</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="10">
+      <c r="A32" s="4">
         <v>26</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="10">
+      <c r="A34" s="4">
         <v>28</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>29</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="10">
+      <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="10">
+      <c r="A37" s="4">
         <v>31</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="10">
+      <c r="A38" s="4">
         <v>32</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="10">
+      <c r="A39" s="4">
         <v>33</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="10">
+      <c r="A40" s="4">
         <v>34</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="10">
+      <c r="A41" s="4">
         <v>35</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="10">
+      <c r="A42" s="4">
         <v>36</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="10">
+      <c r="A43" s="4">
         <v>37</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="10">
+      <c r="A44" s="4">
         <v>38</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="10">
+      <c r="A45" s="4">
         <v>39</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="10">
+      <c r="A46" s="4">
         <v>40</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>105</v>
       </c>
     </row>
